--- a/biology/Mycologie/Pleospora/Pleospora.xlsx
+++ b/biology/Mycologie/Pleospora/Pleospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleospora est un genre de champignons (Fungi) ascomycètes de la famille des Pleosporaceae.
 Ce genre compte environ 225 espèces, dont plusieurs sont des parasites spécialisés des céréales et autres graminées.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (8 novembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (8 novembre 2014) :
 Cleistotheca Zukal, 1893 ;
 Cleistothecopsis Stevens &amp; True, 1919.
 </t>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 novembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 novembre 2018) :
 Pleospora addubitans (Stirt.) A.L. Sm. ex Walt. Watson
 Pleospora alfalfae E.G. Simmons
 Pleospora alnicola Podl.-Ruz. &amp; Svrček
@@ -616,7 +632,7 @@
 Pleospora verecunda (Curr.) Sacc.
 Pleospora vitalbae (De Not.) Berl.
 Pleospora welwitschiae Crivelli
-Selon Catalogue of Life                                   (14 novembre 2018)[4] :
+Selon Catalogue of Life                                   (14 novembre 2018) :
 Pleospora abscondita Sacc. &amp; Roum. 1881
 Pleospora acaenae Henn. 1906
 Pleospora aceris-tatarici Sandu 1962
@@ -1004,7 +1020,7 @@
 Pleospora xerophylli Petr. 1922
 Pleospora zeina Saccas 1951
 Pleospora zimmermannii Roum. 1880
-Selon Index Fungorum                                      (14 novembre 2018)[5] :
+Selon Index Fungorum                                      (14 novembre 2018) :
 Pleospora abromeitiana Henn. 1897
 Pleospora abscondita Sacc. &amp; Roum. 1881
 Pleospora acaciicola Henn. 1898
@@ -1471,7 +1487,7 @@
 Pleospora pertusa Sacc. &amp; Cavara 1900
 Pleospora petiolorum Fuckel 1870
 Pleospora pezizoides Ces. 1885
-Pleospora phaeocomoide</t>
+Pleospora phaeocomoides (Sacc.)</t>
         </is>
       </c>
     </row>
